--- a/Assignment2/results bigram unigram.xlsx
+++ b/Assignment2/results bigram unigram.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jozef/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jozef/Documents/Projects/DataMining/Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFA8ECF-7562-6946-8D5A-1E2B636178D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C19DD9F-A7C0-6046-93DF-95B81ADE9C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13380" yWindow="460" windowWidth="35660" windowHeight="19620" activeTab="2" xr2:uid="{7BC630ED-3942-B547-86B9-2CF9BFD4C243}"/>
+    <workbookView xWindow="20760" yWindow="460" windowWidth="25260" windowHeight="19620" activeTab="2" xr2:uid="{7BC630ED-3942-B547-86B9-2CF9BFD4C243}"/>
   </bookViews>
   <sheets>
     <sheet name="unigram bigram" sheetId="1" r:id="rId1"/>
@@ -182,28 +182,28 @@
     <t>0.7059 &amp; 0.8727 &amp; 0.8621 &amp; 0.6424 &amp; 0.7927</t>
   </si>
   <si>
-    <t>0.70625 &amp; 0.845833333 &amp; 0.8875 &amp; 0.69375 &amp; 0.822916667</t>
+    <t>0.7063 &amp; 0.8458 &amp; 0.8875 &amp; 0.6938 &amp; 0.8229</t>
   </si>
   <si>
-    <t>0.083945667 &amp; 0.066458007 &amp; 0.029580399 &amp; 0.044546324 &amp; 0.016614502</t>
+    <t>0.0839 &amp; 0.0665 &amp; 0.0296 &amp; 0.0445 &amp; 0.0166</t>
   </si>
   <si>
-    <t>0.8818265 &amp; 0.818041667 &amp; 0.7768175 &amp; 0.6333795 &amp; 0.806446667</t>
+    <t>0.8818 &amp; 0.8180 &amp; 0.7768 &amp; 0.6334 &amp; 0.8064</t>
   </si>
   <si>
-    <t>0.044741142 &amp; 0.06120513 &amp; 0.030004052 &amp; 0.008240776 &amp; 0.039186118</t>
+    <t>0.0447 &amp; 0.0612 &amp; 0.0300 &amp; 0.0082 &amp; 0.0392</t>
   </si>
   <si>
-    <t>0.80625 &amp; 0.828125 &amp; 0.815625 &amp; 0.645833333 &amp; 0.811458333</t>
+    <t>0.8063 &amp; 0.8281 &amp; 0.8156 &amp; 0.6458 &amp; 0.8115</t>
   </si>
   <si>
-    <t>0.052291252 &amp; 0.057384395 &amp; 0.025233287 &amp; 0.008539126 &amp; 0.021071555</t>
+    <t>0.0523 &amp; 0.0574 &amp; 0.0252 &amp; 0.0085 &amp; 0.0211</t>
   </si>
   <si>
-    <t>0.782918 &amp; 0.8309735 &amp; 0.828078667 &amp; 0.661491667 &amp; 0.813922833</t>
+    <t>0.7829 &amp; 0.8310 &amp; 0.8281 &amp; 0.6615 &amp; 0.8139</t>
   </si>
   <si>
-    <t>0.064463786 &amp; 0.057180377 &amp; 0.022279807 &amp; 0.018497419 &amp; 0.015946052</t>
+    <t>0.0645 &amp; 0.0572 &amp; 0.0223 &amp; 0.0185 &amp; 0.0159</t>
   </si>
 </sst>
 </file>
@@ -212,7 +212,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -315,10 +315,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -327,10 +331,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3136,7 +3136,7 @@
             <c:numRef>
               <c:f>('mean overall'!$D$13,'mean overall'!$D$22,'mean overall'!$D$31,'mean overall'!$D$40)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.70624999999999993</c:v>
@@ -3267,7 +3267,7 @@
             <c:numRef>
               <c:f>('mean overall'!$F$13,'mean overall'!$F$22,'mean overall'!$F$31,'mean overall'!$F$40)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.88750000000000007</c:v>
@@ -3398,7 +3398,7 @@
             <c:numRef>
               <c:f>('mean overall'!$G$13,'mean overall'!$G$22,'mean overall'!$G$31,'mean overall'!$G$40)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.69374999999999998</c:v>
@@ -3529,7 +3529,7 @@
             <c:numRef>
               <c:f>('mean overall'!$H$13,'mean overall'!$H$22,'mean overall'!$H$31,'mean overall'!$H$40)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.82291666666666663</c:v>
@@ -3697,7 +3697,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4032,7 +4032,7 @@
             <c:numRef>
               <c:f>('mean overall'!$D$13,'mean overall'!$D$22,'mean overall'!$D$31,'mean overall'!$D$40)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.70624999999999993</c:v>
@@ -4163,7 +4163,7 @@
             <c:numRef>
               <c:f>('mean overall'!$E$13,'mean overall'!$E$22,'mean overall'!$E$31,'mean overall'!$E$40)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.84583333333333333</c:v>
@@ -4294,7 +4294,7 @@
             <c:numRef>
               <c:f>('mean overall'!$F$13,'mean overall'!$F$22,'mean overall'!$F$31,'mean overall'!$F$40)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.88750000000000007</c:v>
@@ -4425,7 +4425,7 @@
             <c:numRef>
               <c:f>('mean overall'!$G$13,'mean overall'!$G$22,'mean overall'!$G$31,'mean overall'!$G$40)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.69374999999999998</c:v>
@@ -4556,7 +4556,7 @@
             <c:numRef>
               <c:f>('mean overall'!$H$13,'mean overall'!$H$22,'mean overall'!$H$31,'mean overall'!$H$40)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.82291666666666663</c:v>
@@ -4664,7 +4664,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8623,7 +8623,7 @@
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -8647,7 +8647,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
@@ -8669,7 +8669,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="22"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5" t="s">
         <v>12</v>
       </c>
@@ -8691,10 +8691,10 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="12">
         <f>AVERAGE(D7:D9)</f>
         <v>0.76666666666666661</v>
@@ -8718,10 +8718,10 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="13">
         <f>STDEV(D7:D9)</f>
         <v>7.1078008788466568E-2</v>
@@ -8745,7 +8745,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -8769,7 +8769,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
@@ -8813,10 +8813,10 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="14">
         <f>AVERAGE(D12:D14)</f>
         <v>0.64583333333333337</v>
@@ -8841,10 +8841,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="13">
         <f>STDEV(D12:D14)</f>
         <v>4.0181878170804E-2</v>
@@ -8898,10 +8898,10 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="10"/>
       <c r="D18" s="16">
         <f>STDEV(D7:D14)</f>
@@ -8939,7 +8939,7 @@
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -8963,7 +8963,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="22"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="5" t="s">
         <v>11</v>
       </c>
@@ -8985,7 +8985,7 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="22"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5"/>
       <c r="D22" s="13">
         <v>0.9</v>
@@ -9005,10 +9005,10 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="12">
         <f>AVERAGE(D20:D22)</f>
         <v>0.92059233333333335</v>
@@ -9032,10 +9032,10 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="13">
         <f>STDEV(D20:D22)</f>
         <v>1.7881643557943243E-2</v>
@@ -9059,7 +9059,7 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -9083,7 +9083,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
@@ -9105,7 +9105,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="5" t="s">
         <v>12</v>
       </c>
@@ -9127,10 +9127,10 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="19"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="14">
         <f>AVERAGE(D25:D27)</f>
         <v>0.84306066666666657</v>
@@ -9155,10 +9155,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="13">
         <f>STDEV(D25:D27)</f>
         <v>1.3277870097772966E-2</v>
@@ -9212,10 +9212,10 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="10"/>
       <c r="D31" s="16">
         <f>STDEV(D20:D27)</f>
@@ -9253,7 +9253,7 @@
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -9277,7 +9277,7 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="22"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="5" t="s">
         <v>11</v>
       </c>
@@ -9299,7 +9299,7 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="22"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
@@ -9321,10 +9321,10 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="19"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="12">
         <f>AVERAGE(D33:D35)</f>
         <v>0.85</v>
@@ -9348,10 +9348,10 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="13">
         <f>STDEV(D33:D35)</f>
         <v>3.125E-2</v>
@@ -9375,7 +9375,7 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -9399,7 +9399,7 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="22"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="5" t="s">
         <v>11</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
@@ -9443,10 +9443,10 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="19"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="14">
         <f>AVERAGE(D38:D40)</f>
         <v>0.76250000000000007</v>
@@ -9471,10 +9471,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="13">
         <f>STDEV(D38:D40)</f>
         <v>1.0825317547305507E-2</v>
@@ -9528,10 +9528,10 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="10"/>
       <c r="D44" s="16">
         <f>STDEV(D33:D40)</f>
@@ -9569,7 +9569,7 @@
       <c r="A46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -9593,7 +9593,7 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="22"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
@@ -9615,7 +9615,7 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="22"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="6" t="s">
         <v>12</v>
       </c>
@@ -9637,10 +9637,10 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="23"/>
       <c r="D49" s="12">
         <f>AVERAGE(D46:D48)</f>
         <v>0.83517966666666654</v>
@@ -9664,10 +9664,10 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="20"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="13">
         <f>STDEV(D46:D48)</f>
         <v>4.1612422620334537E-2</v>
@@ -9691,7 +9691,7 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -9715,7 +9715,7 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="5" t="s">
         <v>11</v>
       </c>
@@ -9737,7 +9737,7 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="6" t="s">
         <v>12</v>
       </c>
@@ -9759,10 +9759,10 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="19"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="14">
         <f>AVERAGE(D51:D53)</f>
         <v>0.73065633333333324</v>
@@ -9787,10 +9787,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="20"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="13">
         <f>STDEV(D51:D53)</f>
         <v>2.152928550447817E-2</v>
@@ -9844,10 +9844,10 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="10"/>
       <c r="D57" s="16">
         <f>STDEV(D46:D53)</f>
@@ -9874,18 +9874,6 @@
     <row r="58" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B28:C28"/>
@@ -9902,6 +9890,18 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9913,7 +9913,7 @@
   <dimension ref="A6:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H41" sqref="A6:H41"/>
+      <selection activeCell="D7" sqref="D7:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9943,7 +9943,7 @@
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -9966,7 +9966,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -9987,7 +9987,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" t="s">
         <v>10</v>
       </c>
@@ -10008,7 +10008,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
@@ -10031,7 +10031,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -10052,7 +10052,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" t="s">
         <v>10</v>
       </c>
@@ -10080,23 +10080,23 @@
       <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="12">
         <f>AVERAGE(D7:D12)</f>
         <v>0.70624999999999993</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="12">
         <f>AVERAGE(E7:E12)</f>
         <v>0.84583333333333333</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="12">
         <f>AVERAGE(F7:F12)</f>
         <v>0.88750000000000007</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="12">
         <f>AVERAGE(G7:G12)</f>
         <v>0.69374999999999998</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="12">
         <f>AVERAGE(H7:H12)</f>
         <v>0.82291666666666663</v>
       </c>
@@ -10107,23 +10107,23 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="D14" s="12">
         <f>STDEV(D7:D12)</f>
         <v>8.3945666951904516E-2</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="12">
         <f>STDEV(E7:E12)</f>
         <v>6.6458006791256297E-2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="12">
         <f>STDEV(F7:F12)</f>
         <v>2.9580398915498088E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="12">
         <f>STDEV(G7:G12)</f>
         <v>4.4546324203013646E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="12">
         <f>STDEV(H7:H12)</f>
         <v>1.6614501697814071E-2</v>
       </c>
@@ -10131,16 +10131,17 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
@@ -10163,7 +10164,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -10184,7 +10185,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" t="s">
         <v>10</v>
       </c>
@@ -10205,7 +10206,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C19" t="s">
@@ -10228,7 +10229,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -10249,7 +10250,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>10</v>
       </c>
@@ -10277,23 +10278,23 @@
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="12">
         <f>AVERAGE(D16:D21)</f>
         <v>0.88182649999999996</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="12">
         <f>AVERAGE(E16:E21)</f>
         <v>0.81804166666666667</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="12">
         <f>AVERAGE(F16:F21)</f>
         <v>0.77681750000000005</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="12">
         <f>AVERAGE(G16:G21)</f>
         <v>0.63337949999999998</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="12">
         <f>AVERAGE(H16:H21)</f>
         <v>0.80644666666666665</v>
       </c>
@@ -10304,23 +10305,23 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5">
+      <c r="D23" s="12">
         <f>STDEV(D16:D21)</f>
         <v>4.4741142197087483E-2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="12">
         <f>STDEV(E16:E21)</f>
         <v>6.1205130306753418E-2</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="12">
         <f>STDEV(F16:F21)</f>
         <v>3.0004052444628199E-2</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="12">
         <f>STDEV(G16:G21)</f>
         <v>8.2407762195074678E-3</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="12">
         <f>STDEV(H16:H21)</f>
         <v>3.9186117943305711E-2</v>
       </c>
@@ -10328,16 +10329,17 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
@@ -10360,7 +10362,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -10381,7 +10383,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" t="s">
         <v>10</v>
       </c>
@@ -10402,7 +10404,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
@@ -10425,7 +10427,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" t="s">
         <v>11</v>
       </c>
@@ -10446,7 +10448,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" t="s">
         <v>10</v>
       </c>
@@ -10474,23 +10476,23 @@
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="12">
         <f>AVERAGE(D25:D30)</f>
         <v>0.80624999999999991</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="12">
         <f>AVERAGE(E25:E30)</f>
         <v>0.828125</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="12">
         <f>AVERAGE(F25:F30)</f>
         <v>0.81562499999999993</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="12">
         <f>AVERAGE(G25:G30)</f>
         <v>0.64583333333333337</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="12">
         <f>AVERAGE(H25:H30)</f>
         <v>0.81145833333333328</v>
       </c>
@@ -10501,23 +10503,23 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5">
+      <c r="D32" s="12">
         <f>STDEV(D25:D30)</f>
         <v>5.2291251658379702E-2</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="12">
         <f>STDEV(E25:E30)</f>
         <v>5.7384394655690146E-2</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="12">
         <f>STDEV(F25:F30)</f>
         <v>2.5233286547732926E-2</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="12">
         <f>STDEV(G25:G30)</f>
         <v>8.5391256382996734E-3</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="12">
         <f>STDEV(H25:H30)</f>
         <v>2.1071554680817142E-2</v>
       </c>
@@ -10525,16 +10527,17 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
@@ -10557,7 +10560,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -10578,7 +10581,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" t="s">
         <v>10</v>
       </c>
@@ -10599,7 +10602,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C37" t="s">
@@ -10622,7 +10625,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
+      <c r="B38" s="20"/>
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -10643,7 +10646,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" t="s">
         <v>10</v>
       </c>
@@ -10671,23 +10674,23 @@
       <c r="C40" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="12">
         <f>AVERAGE(D34:D39)</f>
         <v>0.782918</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="12">
         <f>AVERAGE(E34:E39)</f>
         <v>0.83097350000000014</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="12">
         <f>AVERAGE(F34:F39)</f>
         <v>0.82807866666666674</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="12">
         <f>AVERAGE(G34:G39)</f>
         <v>0.6614916666666667</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="12">
         <f>AVERAGE(H34:H39)</f>
         <v>0.81392283333333337</v>
       </c>
@@ -10698,23 +10701,23 @@
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5">
+      <c r="D41" s="12">
         <f>STDEV(D34:D39)</f>
         <v>6.4463785985621386E-2</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="12">
         <f>STDEV(E34:E39)</f>
         <v>5.7180376503657246E-2</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="12">
         <f>STDEV(F34:F39)</f>
         <v>2.2279807060804329E-2</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="12">
         <f>STDEV(G34:G39)</f>
         <v>1.8497419016356521E-2</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="12">
         <f>STDEV(H34:H39)</f>
         <v>1.594605248224986E-2</v>
       </c>
@@ -10740,7 +10743,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D2" sqref="D2:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10770,7 +10773,7 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
@@ -10796,7 +10799,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -10820,7 +10823,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -10844,7 +10847,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
@@ -10870,7 +10873,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -10894,7 +10897,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -10925,23 +10928,23 @@
       <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="12">
         <f>AVERAGE(D2:D7)</f>
         <v>0.70624999999999993</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="12">
         <f>AVERAGE(E2:E7)</f>
         <v>0.84583333333333333</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="12">
         <f>AVERAGE(F2:F7)</f>
         <v>0.88750000000000007</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="12">
         <f>AVERAGE(G2:G7)</f>
         <v>0.69374999999999998</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="12">
         <f>AVERAGE(H2:H7)</f>
         <v>0.82291666666666663</v>
       </c>
@@ -10955,23 +10958,23 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5">
+      <c r="D9" s="12">
         <f>STDEV(D2:D7)</f>
         <v>8.3945666951904516E-2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="12">
         <f>STDEV(E2:E7)</f>
         <v>6.6458006791256297E-2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="12">
         <f>STDEV(F2:F7)</f>
         <v>2.9580398915498088E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="12">
         <f>STDEV(G2:G7)</f>
         <v>4.4546324203013646E-2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="12">
         <f>STDEV(H2:H7)</f>
         <v>1.6614501697814071E-2</v>
       </c>
@@ -10982,11 +10985,10 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="D10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="J10" t="s">
         <v>23</v>
       </c>
@@ -10995,7 +10997,7 @@
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -11021,7 +11023,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -11045,7 +11047,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" t="s">
         <v>10</v>
       </c>
@@ -11069,7 +11071,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -11095,7 +11097,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" t="s">
         <v>11</v>
       </c>
@@ -11119,7 +11121,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" t="s">
         <v>10</v>
       </c>
@@ -11150,23 +11152,23 @@
       <c r="C17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="12">
         <f>AVERAGE(D11:D16)</f>
         <v>0.88182649999999996</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="12">
         <f>AVERAGE(E11:E16)</f>
         <v>0.81804166666666667</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="12">
         <f>AVERAGE(F11:F16)</f>
         <v>0.77681750000000005</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="12">
         <f>AVERAGE(G11:G16)</f>
         <v>0.63337949999999998</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="12">
         <f>AVERAGE(H11:H16)</f>
         <v>0.80644666666666665</v>
       </c>
@@ -11180,23 +11182,23 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="D18" s="12">
         <f>STDEV(D11:D16)</f>
         <v>4.4741142197087483E-2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="12">
         <f>STDEV(E11:E16)</f>
         <v>6.1205130306753418E-2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="12">
         <f>STDEV(F11:F16)</f>
         <v>3.0004052444628199E-2</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="12">
         <f>STDEV(G11:G16)</f>
         <v>8.2407762195074678E-3</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="12">
         <f>STDEV(H11:H16)</f>
         <v>3.9186117943305711E-2</v>
       </c>
@@ -11207,11 +11209,10 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
       <c r="J19" t="s">
         <v>23</v>
       </c>
@@ -11220,7 +11221,7 @@
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
@@ -11246,7 +11247,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" t="s">
         <v>11</v>
       </c>
@@ -11270,7 +11271,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" t="s">
         <v>10</v>
       </c>
@@ -11294,7 +11295,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C23" t="s">
@@ -11320,7 +11321,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" t="s">
         <v>11</v>
       </c>
@@ -11344,7 +11345,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" t="s">
         <v>10</v>
       </c>
@@ -11375,23 +11376,23 @@
       <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="12">
         <f>AVERAGE(D20:D25)</f>
         <v>0.80624999999999991</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="12">
         <f>AVERAGE(E20:E25)</f>
         <v>0.828125</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="12">
         <f>AVERAGE(F20:F25)</f>
         <v>0.81562499999999993</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="12">
         <f>AVERAGE(G20:G25)</f>
         <v>0.64583333333333337</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="12">
         <f>AVERAGE(H20:H25)</f>
         <v>0.81145833333333328</v>
       </c>
@@ -11405,23 +11406,23 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5">
+      <c r="D27" s="12">
         <f>STDEV(D20:D25)</f>
         <v>5.2291251658379702E-2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="12">
         <f>STDEV(E20:E25)</f>
         <v>5.7384394655690146E-2</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="12">
         <f>STDEV(F20:F25)</f>
         <v>2.5233286547732926E-2</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="12">
         <f>STDEV(G20:G25)</f>
         <v>8.5391256382996734E-3</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="12">
         <f>STDEV(H20:H25)</f>
         <v>2.1071554680817142E-2</v>
       </c>
@@ -11432,11 +11433,10 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="D28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="J28" t="s">
         <v>23</v>
       </c>
@@ -11445,7 +11445,7 @@
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
@@ -11476,7 +11476,7 @@
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" t="s">
         <v>11</v>
       </c>
@@ -11498,14 +11498,14 @@
       <c r="J30" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" t="s">
         <v>10</v>
       </c>
@@ -11527,14 +11527,14 @@
       <c r="J31" t="s">
         <v>44</v>
       </c>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
@@ -11558,14 +11558,14 @@
       <c r="J32" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -11587,14 +11587,14 @@
       <c r="J33" t="s">
         <v>46</v>
       </c>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" t="s">
         <v>10</v>
       </c>
@@ -11616,11 +11616,11 @@
       <c r="J34" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -11630,23 +11630,23 @@
       <c r="C35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="12">
         <f>AVERAGE(D29:D34)</f>
         <v>0.782918</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="12">
         <f>AVERAGE(E29:E34)</f>
         <v>0.83097350000000014</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="12">
         <f>AVERAGE(F29:F34)</f>
         <v>0.82807866666666674</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="12">
         <f>AVERAGE(G29:G34)</f>
         <v>0.6614916666666667</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="12">
         <f>AVERAGE(H29:H34)</f>
         <v>0.81392283333333337</v>
       </c>
@@ -11660,23 +11660,23 @@
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5">
+      <c r="D36" s="12">
         <f>STDEV(D29:D34)</f>
         <v>6.4463785985621386E-2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="12">
         <f>STDEV(E29:E34)</f>
         <v>5.7180376503657246E-2</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="12">
         <f>STDEV(F29:F34)</f>
         <v>2.2279807060804329E-2</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="12">
         <f>STDEV(G29:G34)</f>
         <v>1.8497419016356521E-2</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="12">
         <f>STDEV(H29:H34)</f>
         <v>1.594605248224986E-2</v>
       </c>
@@ -11686,14 +11686,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assignment2/results bigram unigram.xlsx
+++ b/Assignment2/results bigram unigram.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jozef/Documents/Projects/DataMining/Assignment2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C19DD9F-A7C0-6046-93DF-95B81ADE9C2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62819EDE-5BEA-3340-B040-3EE03252A534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20760" yWindow="460" windowWidth="25260" windowHeight="19620" activeTab="2" xr2:uid="{7BC630ED-3942-B547-86B9-2CF9BFD4C243}"/>
+    <workbookView xWindow="4440" yWindow="460" windowWidth="41580" windowHeight="19620" xr2:uid="{7BC630ED-3942-B547-86B9-2CF9BFD4C243}"/>
   </bookViews>
   <sheets>
     <sheet name="unigram bigram" sheetId="1" r:id="rId1"/>
@@ -8203,16 +8203,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441324</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>250825</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8577,8 +8577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3941A51-2226-3D41-87EF-D0BE1856EF9E}">
   <dimension ref="A4:I58"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9912,8 +9912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36F6BBB-3C06-AD4C-8B6A-14E9941D4FBC}">
   <dimension ref="A6:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:H41"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10742,8 +10742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC46F4DF-3978-D644-BB43-D410233491BF}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
